--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="0" windowWidth="24760" windowHeight="20020" tabRatio="500"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="43">
   <si>
     <t>foreigners are niet zo intelligent als irish</t>
   </si>
@@ -131,24 +131,6 @@
   </si>
   <si>
     <t>Thank you, the task is now complete. Please contact the researcher.</t>
-  </si>
-  <si>
-    <t>instructionsEnd</t>
-  </si>
-  <si>
-    <t>instructions5</t>
-  </si>
-  <si>
-    <t>instructions1</t>
-  </si>
-  <si>
-    <t>instructions2</t>
-  </si>
-  <si>
-    <t>instructions3</t>
-  </si>
-  <si>
-    <t>instructions4</t>
   </si>
   <si>
     <t>In this response task will you have to react to words and propositions that are presented on the screen. In the next phase words will be presented in ORANGE.
@@ -206,6 +188,9 @@
 When the proposition "I am worthless" appears, respond with the right response (TRUE).
 If you make a mistake, hit the correct key as soon as possible.
 Put your two index fingers on the E and I keys. Press either one to start.</t>
+  </si>
+  <si>
+    <t>instructions</t>
   </si>
 </sst>
 </file>
@@ -261,7 +246,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="89">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -351,17 +336,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="89">
+  <cellStyles count="91">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -406,6 +392,7 @@
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -450,6 +437,7 @@
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -779,60 +767,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="64.1640625" customWidth="1"/>
-    <col min="2" max="6" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="195">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="300">
+      <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="4" spans="1:1" ht="315">
+      <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="5" spans="1:1" ht="285">
+      <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="6" spans="1:1" ht="255">
+      <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="390">
-      <c r="A2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="4" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -868,10 +847,10 @@
       <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -885,10 +864,10 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -902,10 +881,10 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -919,10 +898,10 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -936,10 +915,10 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -953,10 +932,10 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -970,10 +949,10 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -987,10 +966,10 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1004,10 +983,10 @@
       <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1021,10 +1000,10 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1038,10 +1017,10 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1055,10 +1034,10 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1072,10 +1051,10 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1089,10 +1068,10 @@
       <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1106,10 +1085,10 @@
       <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1123,13 +1102,13 @@
       <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
@@ -1141,13 +1120,13 @@
       <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
@@ -1159,13 +1138,13 @@
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
@@ -1177,10 +1156,10 @@
       <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1194,30 +1173,30 @@
       <c r="C20" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="D21" s="3"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="D22" s="3"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="D23" s="3"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="D24" s="3"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="D25" s="3"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="D26" s="3"/>
+      <c r="D26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="0" windowWidth="24760" windowHeight="20020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,115 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="43">
-  <si>
-    <t>foreigners are niet zo intelligent als irish</t>
-  </si>
-  <si>
-    <t>irish are niet zo intelligent als foreigners</t>
-  </si>
-  <si>
-    <t>irish are intelligenter than foreigners</t>
-  </si>
-  <si>
-    <t>irish are slimmer than foreigners</t>
-  </si>
-  <si>
-    <t>irish are verstandiger than foreigners</t>
-  </si>
-  <si>
-    <t>irish are scherpzinniger than foreigners</t>
-  </si>
-  <si>
-    <t>irish are minder dom than foreigners</t>
-  </si>
-  <si>
-    <t>foreigners are dommer than irish</t>
-  </si>
-  <si>
-    <t>foreigners are minder verstandig than irish</t>
-  </si>
-  <si>
-    <t>foreigners are minder scherpzinnig than irish</t>
-  </si>
-  <si>
-    <t>foreigners are achterlijker than irish</t>
-  </si>
-  <si>
-    <t>irish are dommer than foreigners</t>
-  </si>
-  <si>
-    <t>irish are minder verstandig than foreigners</t>
-  </si>
-  <si>
-    <t>irish are minder scherpzinnig than foreigners</t>
-  </si>
-  <si>
-    <t>irish are achterlijker than foreigners</t>
-  </si>
-  <si>
-    <t>foreigners are intelligenter than irish</t>
-  </si>
-  <si>
-    <t>foreigners are slimmer than irish</t>
-  </si>
-  <si>
-    <t>foreigners are verstandiger than irish</t>
-  </si>
-  <si>
-    <t>foreigners are scherpzinniger than irish</t>
-  </si>
-  <si>
-    <t>foreigners are minder dom than irish</t>
-  </si>
-  <si>
-    <t>irish</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>foreigners</t>
-  </si>
-  <si>
-    <t>more intelligent</t>
-  </si>
-  <si>
-    <t>not as intelligent as</t>
-  </si>
-  <si>
-    <t>dumber</t>
-  </si>
-  <si>
-    <t>wiser</t>
-  </si>
-  <si>
-    <t>sharper</t>
-  </si>
-  <si>
-    <t>less stupid</t>
-  </si>
-  <si>
-    <t>less wise</t>
-  </si>
-  <si>
-    <t>less sharp</t>
-  </si>
-  <si>
-    <t>more backward</t>
-  </si>
-  <si>
-    <t>less astute</t>
-  </si>
-  <si>
-    <t>smarter</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Thank you, the task is now complete. Please contact the researcher.</t>
   </si>
@@ -197,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,13 +108,6 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -339,10 +223,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -780,37 +662,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="195">
-      <c r="A2" s="3" t="s">
-        <v>37</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="300">
-      <c r="A3" s="3" t="s">
-        <v>39</v>
+      <c r="A3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="315">
-      <c r="A4" s="3" t="s">
-        <v>40</v>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="285">
-      <c r="A5" s="3" t="s">
-        <v>41</v>
+      <c r="A5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="255">
-      <c r="A6" s="3" t="s">
-        <v>38</v>
+      <c r="A6" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
+      <c r="A7" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -822,389 +704,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="2" width="61.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="D26" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -32,9 +32,35 @@
 Put your two index fingers on the E and I keys. Press either one to start.</t>
   </si>
   <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>The next phase some propositions will be presented in BLUE.
+These propositons are always statements about SELF ESTEEM.
+You must respond AS IF 'I am good and not bad'.
+Press the I key when the statement is TRUE according to the above rule.
+Press the E key when the statement is FALSE according to the above rule.
+For example:
+When the proposition 'I am valuable' appears, respond with the right response (TRUE).
+When the proposition 'I am worthless' appears, respond with the left response (FALSE).
+If you make a mistake hit the correct key as soon as possible.
+Put your two index fingers on the E and I keys. Press either one to start.</t>
+  </si>
+  <si>
+    <t>IMPORANT: THE RULE FOR THE BLUE STATEMENTS HAS NOW CHANGED.
+You must respond AS IF 'I am bad and not good'.
+Press the I key when the statement is TRUE according to the above rule.
+Press the E key when the statement is FALSE according to the above rule.
+For example:
+When the proposition "I am valuable" appears, respond with the left response (FALSE).
+When the proposition "I am worthless" appears, respond with the right response (TRUE).
+If you make a mistake, hit the correct key as soon as possible.
+Put your two index fingers on the E and I keys. Press either one to start.</t>
+  </si>
+  <si>
     <t>Very good!
 The next phase will again present words in ORANGE and statements in BLUE.
-Again, you must respond AS IF you see yourself as a bad person and not a good person.
+Again, you must respond AS IF 'I am bad and not good'.
 Press the I key when the statement is TRUE according to the above rule.
 Press the E key when the statement is FALSE according to the above rule.
 The rule that you must respond to the orange words does not change:
@@ -45,43 +71,15 @@
   </si>
   <si>
     <t>Very good!
-The next phase some propositions will be presented in BLUE.
-These propositons are always statements about SELF ESTEEM.
-You must respond AS IF you see yourself as a good person and not a bad person.
-Press the I key when the statement is TRUE according to the above rule.
-Press the E key when the statement is FALSE according to the above rule.
-For example:
-When the proposition "I am valuable" appears, respond with the right response (TRUE).
-When the proposition "I am worthless" appears, respond with the left response (FALSE).
-If you make a mistake, hit the correct key as soon as possible.
-Put your two index fingers on the E and I keys. Press either one to start.</t>
-  </si>
-  <si>
-    <t>Very good!
 The next phase some words will be presented in ORANGE and some propositions in BLUE. These propositons are always statements about SELF ESTEEM.
-You must respond AS IF you see yourself as a good person and not a bad person.
+Again, you must respond AS IF 'I am good and not bad'.
 Press the I key when the statement is TRUE according to the above rule.
 Press the E key when the statement is FALSE according to the above rule.
 The rule that you must respond to the orange words does not change:
 Press the I key if the word is synonymous with TRUE.
 Press the E key if the word is a synonym for FALSE.
-If you make a mistake, hit the correct key as soon as possible.
+If you make a mistake hit the correct key as soon as possible.
 Put your two index fingers on the E and I keys. Press either one to start.</t>
-  </si>
-  <si>
-    <t>Very good!
-IMPORANT: THE RULE FOR THE BLUE STATEMENTS HAS NOW CHANGED.
-You must respond AS IF you see yourself as a bad person and not a good person.
-Press the I key when the statement is TRUE according to the above rule.
-Press the E key when the statement is FALSE according to the above rule.
-For example:
-When the proposition "I am valuable" appears, respond with the left response (FALSE).
-When the proposition "I am worthless" appears, respond with the right response (TRUE).
-If you make a mistake, hit the correct key as soon as possible.
-Put your two index fingers on the E and I keys. Press either one to start.</t>
-  </si>
-  <si>
-    <t>instructions</t>
   </si>
 </sst>
 </file>
@@ -651,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -662,7 +660,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="195">
@@ -670,24 +668,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="300">
+    <row r="3" spans="1:1" ht="255">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="315">
+    <row r="4" spans="1:1" ht="285">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="240">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="285">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:1" ht="240">
+      <c r="A6" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="255">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1">

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Thank you, the task is now complete. Please contact the researcher.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>In this response task will you have to react to words and propositions that are presented on the screen. In the next phase words will be presented in ORANGE.
 It is your job to decide as soon as possible whether the word refers to TRUE or FALSE.
@@ -47,17 +44,6 @@
 Put your two index fingers on the E and I keys. Press either one to start.</t>
   </si>
   <si>
-    <t>IMPORANT: THE RULE FOR THE BLUE STATEMENTS HAS NOW CHANGED.
-You must respond AS IF 'I am bad and not good'.
-Press the I key when the statement is TRUE according to the above rule.
-Press the E key when the statement is FALSE according to the above rule.
-For example:
-When the proposition "I am valuable" appears, respond with the left response (FALSE).
-When the proposition "I am worthless" appears, respond with the right response (TRUE).
-If you make a mistake, hit the correct key as soon as possible.
-Put your two index fingers on the E and I keys. Press either one to start.</t>
-  </si>
-  <si>
     <t>Very good!
 The next phase will again present words in ORANGE and statements in BLUE.
 Again, you must respond AS IF 'I am bad and not good'.
@@ -80,6 +66,38 @@
 Press the E key if the word is a synonym for FALSE.
 If you make a mistake hit the correct key as soon as possible.
 Put your two index fingers on the E and I keys. Press either one to start.</t>
+  </si>
+  <si>
+    <t>stimulusFile</t>
+  </si>
+  <si>
+    <t>stimuliBlock1.xlsx</t>
+  </si>
+  <si>
+    <t>stimuliBlock2.xlsx</t>
+  </si>
+  <si>
+    <t>stimuliBlock3.xlsx</t>
+  </si>
+  <si>
+    <t>stimuliBlock4.xlsx</t>
+  </si>
+  <si>
+    <t>stimuliBlock5.xlsx</t>
+  </si>
+  <si>
+    <t>IMPORANT: THE RULE FOR THE BLUE STATEMENTS HAS NOW CHANGED.
+You must respond AS IF 'I am bad and not good'.
+Press the I key when the statement is TRUE according to the above rule.
+Press the E key when the statement is FALSE according to the above rule.
+For example:
+When the proposition 'I am valuable' appears, respond with the left response (FALSE).
+When the proposition 'I am worthless' appears, respond with the right response (TRUE).
+If you make a mistake, hit the correct key as soon as possible.
+Put your two index fingers on the E and I keys. Press either one to start.</t>
+  </si>
+  <si>
+    <t>nBlockRepetitions</t>
   </si>
 </sst>
 </file>
@@ -128,8 +146,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -227,7 +255,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="101">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -273,6 +301,11 @@
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -318,6 +351,11 @@
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -647,51 +685,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="64.1640625" customWidth="1"/>
+    <col min="1" max="1" width="79.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="165">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="195">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:3" ht="225">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="255">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3" ht="270">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="210">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="240">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" ht="285">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="240">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="240">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>In this response task will you have to react to words and propositions that are presented on the screen. In the next phase words will be presented in ORANGE.
 It is your job to decide as soon as possible whether the word refers to TRUE or FALSE.
@@ -68,24 +68,6 @@
 Put your two index fingers on the E and I keys. Press either one to start.</t>
   </si>
   <si>
-    <t>stimulusFile</t>
-  </si>
-  <si>
-    <t>stimuliBlock1.xlsx</t>
-  </si>
-  <si>
-    <t>stimuliBlock2.xlsx</t>
-  </si>
-  <si>
-    <t>stimuliBlock3.xlsx</t>
-  </si>
-  <si>
-    <t>stimuliBlock4.xlsx</t>
-  </si>
-  <si>
-    <t>stimuliBlock5.xlsx</t>
-  </si>
-  <si>
     <t>IMPORANT: THE RULE FOR THE BLUE STATEMENTS HAS NOW CHANGED.
 You must respond AS IF 'I am bad and not good'.
 Press the I key when the statement is TRUE according to the above rule.
@@ -95,9 +77,6 @@
 When the proposition 'I am worthless' appears, respond with the right response (TRUE).
 If you make a mistake, hit the correct key as soon as possible.
 Put your two index fingers on the E and I keys. Press either one to start.</t>
-  </si>
-  <si>
-    <t>nBlockRepetitions</t>
   </si>
 </sst>
 </file>
@@ -146,7 +125,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -248,14 +227,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -306,6 +291,7 @@
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -356,6 +342,7 @@
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -685,86 +672,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="79.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="132.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
+    </row>
+    <row r="2" spans="1:1" ht="150">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="165">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
+    <row r="3" spans="1:1" ht="225">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="225">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+    <row r="4" spans="1:1" ht="255">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="270">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+    <row r="5" spans="1:1" ht="210">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="210">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+    <row r="6" spans="1:1" ht="240">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="240">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
@@ -21,62 +21,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>In this response task will you have to react to words and propositions that are presented on the screen. In the next phase words will be presented in ORANGE.
-It is your job to decide as soon as possible whether the word refers to TRUE or FALSE.
-Press the I key if the word is synonymous with TRUE.
-Press the E key if the word is a synonym for FALSE.
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>In this reaction time task will you have to respond to words and statements that are presented on screen. 
+The first phase presents both words in orange.
+Your job is to categorise these words as referring to TRUE or FALSE.
+Go as quickly as you can while being accurate.
 If you make a mistake, hit the correct key as soon as possible.
 Put your two index fingers on the E and I keys. Press either one to start.</t>
   </si>
   <si>
-    <t>instructions</t>
+    <t>The next phase presents statements about self esteem in blue.
+You must respond AS IF 'I am good and not bad'.
+For example:
+When 'I am valuable' appears, respond with TRUE.
+When 'I am worthless' appears, respond with FALSE.
+Go as quickly as you can while being accurate.
+If you make a mistake hit the correct key as soon as possible.
+Press E or I to continue.</t>
   </si>
   <si>
-    <t>The next phase some propositions will be presented in BLUE.
-These propositons are always statements about SELF ESTEEM.
-You must respond AS IF 'I am good and not bad'.
-Press the I key when the statement is TRUE according to the above rule.
-Press the E key when the statement is FALSE according to the above rule.
-For example:
-When the proposition 'I am valuable' appears, respond with the right response (TRUE).
-When the proposition 'I am worthless' appears, respond with the left response (FALSE).
+    <t>The next phase presents both the orange words and blue statements.
+You must both respond to the statements in blue AS IF 'I am good and not bad',
+and categorise the orange words as referring to TRUE or FALSE.
+Go as quickly as you can while being accurate.
 If you make a mistake hit the correct key as soon as possible.
-Put your two index fingers on the E and I keys. Press either one to start.</t>
+Press E or I to continue.</t>
   </si>
   <si>
-    <t>Very good!
-The next phase will again present words in ORANGE and statements in BLUE.
-Again, you must respond AS IF 'I am bad and not good'.
-Press the I key when the statement is TRUE according to the above rule.
-Press the E key when the statement is FALSE according to the above rule.
-The rule that you must respond to the orange words does not change:
-Press the I key if the word is synonymous with TRUE.
-Press the E key if the word is a synonym for FALSE.
+    <t>The next phase presents only the blue statements.
+IMPORANT: THE RULE FOR THE BLUE STATEMENTS HAS NOW CHANGED.
+You must respond AS IF 'I am bad and not good'.
+For example:
+When 'I am valuable' appears, respond with FALSE.
+When 'I am worthless' appears, respond with TRUE.
+Go as quickly as you can while being accurate.
 If you make a mistake, hit the correct key as soon as possible.
-Put your two index fingers on the E and I keys. Press either one to start.</t>
+Press E or I to continue.</t>
   </si>
   <si>
-    <t>Very good!
-The next phase some words will be presented in ORANGE and some propositions in BLUE. These propositons are always statements about SELF ESTEEM.
-Again, you must respond AS IF 'I am good and not bad'.
-Press the I key when the statement is TRUE according to the above rule.
-Press the E key when the statement is FALSE according to the above rule.
-The rule that you must respond to the orange words does not change:
-Press the I key if the word is synonymous with TRUE.
-Press the E key if the word is a synonym for FALSE.
-If you make a mistake hit the correct key as soon as possible.
-Put your two index fingers on the E and I keys. Press either one to start.</t>
-  </si>
-  <si>
-    <t>IMPORANT: THE RULE FOR THE BLUE STATEMENTS HAS NOW CHANGED.
-You must respond AS IF 'I am bad and not good'.
-Press the I key when the statement is TRUE according to the above rule.
-Press the E key when the statement is FALSE according to the above rule.
-For example:
-When the proposition 'I am valuable' appears, respond with the left response (FALSE).
-When the proposition 'I am worthless' appears, respond with the right response (TRUE).
+    <t>The next phase presents both the orange words and blue statements.
+You must both respond to the statements in blue AS IF 'I am bad and not good',
+and categorise the orange words as referring to TRUE or FALSE.
+Go as quickly as you can while being accurate.
 If you make a mistake, hit the correct key as soon as possible.
-Put your two index fingers on the E and I keys. Press either one to start.</t>
+Press E or I to continue.</t>
   </si>
 </sst>
 </file>
@@ -674,9 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -685,32 +673,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="150">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="225">
+    <row r="3" spans="1:1" ht="180">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="255">
+    <row r="4" spans="1:1" ht="135">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="210">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="240">
+    <row r="6" spans="1:1" ht="135">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">

--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="1080" yWindow="0" windowWidth="25360" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>instructions</t>
   </si>
@@ -67,6 +67,18 @@
 Go as quickly as you can while being accurate.
 If you make a mistake, hit the correct key as soon as possible.
 Press E or I to continue.</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>false_label</t>
+  </si>
+  <si>
+    <t>true_label</t>
   </si>
 </sst>
 </file>
@@ -220,7 +232,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -229,6 +241,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -662,47 +675,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="132.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" ht="150">
+    <row r="2" spans="1:3" ht="150">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" ht="180">
+    <row r="3" spans="1:3" ht="180">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" ht="135">
+    <row r="4" spans="1:3" ht="135">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" ht="210">
+    <row r="5" spans="1:3" ht="210">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:1" ht="135">
+    <row r="6" spans="1:3" ht="135">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3">
       <c r="A7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
